--- a/project/vocab.xlsx
+++ b/project/vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilb\Projects\Oboeru\Oboeru\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC87EC3-CA6B-4000-B9DC-B26F90A6CC8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C6B15-7337-4967-B175-B114B9440167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75A4A7FE-AA9B-48C2-A5CA-A82ACC0BB528}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6933" uniqueCount="3028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6933" uniqueCount="3027">
   <si>
     <t>わたし</t>
   </si>
@@ -9156,9 +9156,6 @@
   </si>
   <si>
     <t>さいきん</t>
-  </si>
-  <si>
-    <t>kai</t>
   </si>
   <si>
     <t>pos</t>
@@ -9709,8 +9706,8 @@
   <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F553" sqref="F553"/>
+      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F406" sqref="F406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9728,31 +9725,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D1" t="s">
         <v>3020</v>
       </c>
-      <c r="B1" t="s">
-        <v>3019</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="4" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>3023</v>
       </c>
-      <c r="D1" t="s">
-        <v>3021</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3022</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="12" t="s">
         <v>3024</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" t="s">
         <v>3025</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3026</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3027</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -16601,7 +16598,7 @@
         <v>827</v>
       </c>
       <c r="F406" s="7" t="s">
-        <v>3018</v>
+        <v>1113</v>
       </c>
       <c r="G406" s="12" t="s">
         <v>1071</v>

--- a/project/vocab.xlsx
+++ b/project/vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilb\Projects\Oboeru\Oboeru\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C6B15-7337-4967-B175-B114B9440167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED1172B-3344-4B59-ABF6-B81106C21E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75A4A7FE-AA9B-48C2-A5CA-A82ACC0BB528}"/>
   </bookViews>
@@ -9706,8 +9706,8 @@
   <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F406" sqref="F406"/>
+      <pane ySplit="1" topLeftCell="A862" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C879" sqref="C879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24269,7 +24269,7 @@
     </row>
     <row r="854" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A854" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B854" t="s">
         <v>2648</v>
@@ -24289,7 +24289,7 @@
     </row>
     <row r="855" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A855" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B855" t="s">
         <v>2648</v>
@@ -24306,7 +24306,7 @@
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B856" t="s">
         <v>2648</v>
@@ -24323,7 +24323,7 @@
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B857" t="s">
         <v>2648</v>
@@ -24340,7 +24340,7 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B858" t="s">
         <v>2648</v>
@@ -24357,7 +24357,7 @@
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B859" t="s">
         <v>2648</v>
@@ -24377,7 +24377,7 @@
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B860" t="s">
         <v>2645</v>
@@ -24392,7 +24392,7 @@
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A861" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B861" t="s">
         <v>2645</v>
@@ -24410,7 +24410,7 @@
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B862" t="s">
         <v>2645</v>
@@ -24428,7 +24428,7 @@
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B863" t="s">
         <v>2645</v>
@@ -24446,7 +24446,7 @@
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B864" t="s">
         <v>2645</v>
@@ -24464,7 +24464,7 @@
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B865" t="s">
         <v>2645</v>
@@ -24479,7 +24479,7 @@
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B866" t="s">
         <v>2645</v>
@@ -24497,7 +24497,7 @@
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B867" t="s">
         <v>2645</v>
@@ -24512,7 +24512,7 @@
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B868" t="s">
         <v>2645</v>
@@ -24530,7 +24530,7 @@
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B869" t="s">
         <v>2645</v>
@@ -24548,7 +24548,7 @@
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B870" t="s">
         <v>2645</v>
@@ -24563,7 +24563,7 @@
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B871" t="s">
         <v>1133</v>
@@ -24578,7 +24578,7 @@
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B872" t="s">
         <v>2646</v>
@@ -24593,7 +24593,7 @@
     </row>
     <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B873" t="s">
         <v>2646</v>
@@ -24608,7 +24608,7 @@
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B874" t="s">
         <v>2646</v>
@@ -24623,7 +24623,7 @@
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B875" t="s">
         <v>2646</v>
@@ -24638,7 +24638,7 @@
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B876" t="s">
         <v>2646</v>
@@ -24653,7 +24653,7 @@
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B877" t="s">
         <v>2645</v>
@@ -24668,7 +24668,7 @@
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A878" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B878" t="s">
         <v>2645</v>
@@ -24686,7 +24686,7 @@
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B879" t="s">
         <v>2645</v>
@@ -24701,7 +24701,7 @@
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B880" t="s">
         <v>2645</v>
@@ -24716,7 +24716,7 @@
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A881" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B881" t="s">
         <v>2645</v>
@@ -36470,8 +36470,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:E356"/>
   <sheetViews>
-    <sheetView topLeftCell="A300" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E356"/>
+    <sheetView topLeftCell="A279" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/project/vocab.xlsx
+++ b/project/vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilb\OneDrive\LAJ2203\Personal Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="114_{FA8FDE0F-1F5B-4E0F-A2A4-2DE8FE29E157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C799508-E53D-4698-A834-8E5CE8470048}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="114_{FA8FDE0F-1F5B-4E0F-A2A4-2DE8FE29E157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2DE508D6-E852-48BE-8CAA-5F0165B14B05}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{75A4A7FE-AA9B-48C2-A5CA-A82ACC0BB528}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{75A4A7FE-AA9B-48C2-A5CA-A82ACC0BB528}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11351" uniqueCount="4767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11390" uniqueCount="4779">
   <si>
     <t>わたし</t>
   </si>
@@ -14395,16 +14395,52 @@
     <t>くみたてます</t>
   </si>
   <si>
-    <t>recover, get well, be fixed, repaired</t>
-  </si>
-  <si>
-    <t>これでおわりましょう。</t>
-  </si>
-  <si>
     <t>くわしい</t>
   </si>
   <si>
     <t>詳しい</t>
+  </si>
+  <si>
+    <t>おおきな～</t>
+  </si>
+  <si>
+    <t>ちいさな～</t>
+  </si>
+  <si>
+    <t>～という</t>
+  </si>
+  <si>
+    <t>ーさつ</t>
+  </si>
+  <si>
+    <t>おさきに[しつれいします。]</t>
+  </si>
+  <si>
+    <t>join , participate, attend [a tour]</t>
+  </si>
+  <si>
+    <t>turn on [the power switch]</t>
+  </si>
+  <si>
+    <t>turn off [the power switch]</t>
+  </si>
+  <si>
+    <t>tell [a lie]</t>
+  </si>
+  <si>
+    <t>sort  out [things]</t>
+  </si>
+  <si>
+    <t>affix , stamp [seal]</t>
+  </si>
+  <si>
+    <t>ーpoints</t>
+  </si>
+  <si>
+    <t>ーてん</t>
+  </si>
+  <si>
+    <t>にゅういんします</t>
   </si>
 </sst>
 </file>
@@ -14994,9 +15030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628C1A06-DC3A-4A9C-92CD-85C7106034D7}">
   <dimension ref="A1:O1834"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1375" sqref="H1375"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1494" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1500" sqref="H1500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44070,10 +44106,10 @@
       </c>
       <c r="F1399" s="48"/>
       <c r="H1399" s="6" t="s">
-        <v>4765</v>
+        <v>4763</v>
       </c>
       <c r="I1399" s="6" t="s">
-        <v>4766</v>
+        <v>4764</v>
       </c>
       <c r="J1399"/>
       <c r="K1399"/>
@@ -46494,7 +46530,7 @@
       </c>
       <c r="F1500" s="48"/>
       <c r="H1500" s="6" t="s">
-        <v>3905</v>
+        <v>4778</v>
       </c>
       <c r="I1500" s="6" t="s">
         <v>3906</v>
@@ -53883,8 +53919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C47AE7A-27DE-4818-8D2C-FE1099571B96}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -55022,7 +55058,7 @@
   <dimension ref="A1:D355"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C349" sqref="C349"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64161,355 +64197,589 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C034ED7-5A26-4C74-A073-BE94C6AB30CC}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>3573</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>3576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>3577</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>2936</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>3582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>3584</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>4763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>3902</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>3763</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>3905</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>3586</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>3587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4747</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>3588</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4747</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>3591</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>3592</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>3593</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>3595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>3596</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>3598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>3599</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>3601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>3602</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>3604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>3605</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>3607</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>3608</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>3610</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>3611</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>3613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>3614</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>3616</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>3617</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>3619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>3620</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>3622</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>3623</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>3625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>4695</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>3626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>3627</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>3630</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>3631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>3632</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>3633</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>3634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>3635</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1830</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>4765</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>4766</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>3926</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>3929</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>3271</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>3933</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>3936</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>3940</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>3942</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>3948</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>3637</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>3639</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>3641</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>2146</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>3045</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>3458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>4764</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>4696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>3644</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>3645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>3646</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>3648</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>4734</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>3649</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>3651</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3464</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>3952</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>3955</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>3957</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>4752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>4753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>3958</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>3961</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>4765</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>3652</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3464</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>4767</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>3653</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>3655</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>3656</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>3658</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>4768</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>3977</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>3659</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>3661</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>3662</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>3663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>3664</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>3666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>3667</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>3669</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>3670</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>3672</v>
+        <v>3468</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>3982</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>3985</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>3988</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>3991</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>3994</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>3997</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>4004</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>4777</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>4009</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>4012</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7" t="s">
+        <v>4017</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7" t="s">
+        <v>4020</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>4021</v>
       </c>
     </row>
   </sheetData>
